--- a/dtpu_configurations/only_integer16/50mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/graph.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1433BF-25BD-4BD8-AD90-AEB943758480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF6D4E9-A39F-4C10-B56C-1BFEBFD1A377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilizaiton" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Clocks</t>
   </si>
@@ -80,15 +80,6 @@
   </si>
   <si>
     <t>18x18</t>
-  </si>
-  <si>
-    <t>20x20</t>
-  </si>
-  <si>
-    <t>22x22</t>
-  </si>
-  <si>
-    <t>24x24</t>
   </si>
   <si>
     <t>WNS</t>
@@ -268,7 +259,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -301,15 +292,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -321,46 +303,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>16.47</c:v>
+                  <c:v>17.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.41</c:v>
+                  <c:v>18.78</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.100000000000001</c:v>
+                  <c:v>19.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.75</c:v>
+                  <c:v>20.89</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.04</c:v>
+                  <c:v>22.07</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.010000000000002</c:v>
+                  <c:v>23.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.81</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.93</c:v>
+                  <c:v>29.89</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.9</c:v>
+                  <c:v>33.619999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31.48</c:v>
+                  <c:v>45.21</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43.23</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.08</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>71.77</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>89.095863342285156</c:v>
+                  <c:v>76.180000000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -402,7 +375,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -435,15 +408,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -461,40 +425,31 @@
                   <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.43</c:v>
+                  <c:v>5.53</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.53</c:v>
+                  <c:v>5.71</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.62</c:v>
+                  <c:v>5.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.71</c:v>
+                  <c:v>6.08</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9</c:v>
+                  <c:v>6.45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.08</c:v>
+                  <c:v>6.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.26</c:v>
+                  <c:v>7.18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.45</c:v>
+                  <c:v>7.55</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.63</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.82</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>7.1839079856872559</c:v>
+                  <c:v>7.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -536,7 +491,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -569,15 +524,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -589,46 +535,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>11.12</c:v>
+                  <c:v>11.57</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.67</c:v>
+                  <c:v>12.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>13.02</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.57</c:v>
+                  <c:v>13.92</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13</c:v>
+                  <c:v>14.73</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.82</c:v>
+                  <c:v>15.94</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.23</c:v>
+                  <c:v>18.420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16.95</c:v>
+                  <c:v>21.41</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.899999999999999</c:v>
+                  <c:v>24.86</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22.09</c:v>
+                  <c:v>30.44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>33.75</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>40.549999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>47.988719940185547</c:v>
+                  <c:v>40.21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,7 +607,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -703,15 +640,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -723,19 +651,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>34.29</c:v>
+                  <c:v>45.71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.43</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.43</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.14</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52.14</c:v>
+                  <c:v>57.86</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>57.86</c:v>
@@ -754,15 +682,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57.86</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
-                  <c:v>57.857143402099609</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -804,7 +723,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -837,15 +756,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -887,15 +797,6 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
                   <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
@@ -938,7 +839,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -971,15 +872,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1021,15 +913,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1074,7 +957,7 @@
             <c:strRef>
               <c:f>utilizaiton!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1107,15 +990,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1157,15 +1031,6 @@
                   <c:v>3.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.25</c:v>
-                </c:pt>
-                <c:pt idx="13" formatCode="0.00">
                   <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -1460,7 +1325,7 @@
             <c:strRef>
               <c:f>timing!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1493,15 +1358,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1513,46 +1369,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.29</c:v>
+                  <c:v>7.95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.24</c:v>
+                  <c:v>5.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.24</c:v>
+                  <c:v>6.55</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.98</c:v>
+                  <c:v>6.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.71</c:v>
+                  <c:v>5.77</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.93</c:v>
+                  <c:v>5.18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.58</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.94</c:v>
+                  <c:v>1.74</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0099999999999998</c:v>
+                  <c:v>1.42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.2599999999999998</c:v>
+                  <c:v>0.47</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.1599999999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.18</c:v>
+                  <c:v>0.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,7 +1441,7 @@
             <c:strRef>
               <c:f>timing!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -1627,15 +1474,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1650,7 +1488,7 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.03</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.03</c:v>
@@ -1659,34 +1497,25 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.02</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.03</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="9">
                   <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,7 +1848,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2052,15 +1881,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2093,7 +1913,7 @@
                   <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.02</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.03</c:v>
@@ -2102,15 +1922,6 @@
                   <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.03</c:v>
                 </c:pt>
               </c:numCache>
@@ -2151,7 +1962,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2184,15 +1995,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2234,15 +2036,6 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.02</c:v>
                 </c:pt>
               </c:numCache>
@@ -2283,7 +2076,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2316,15 +2109,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2366,15 +2150,6 @@
                   <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
@@ -2415,7 +2190,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2448,15 +2223,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2499,15 +2265,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.01</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,7 +2304,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2580,15 +2337,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2630,15 +2378,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2679,7 +2418,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2712,15 +2451,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2762,15 +2492,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2813,7 +2534,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2846,15 +2567,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2896,15 +2608,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2947,7 +2650,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -2980,15 +2683,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3030,15 +2724,6 @@
                   <c:v>1.26</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1.26</c:v>
                 </c:pt>
               </c:numCache>
@@ -3081,7 +2766,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3114,15 +2799,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3164,15 +2840,6 @@
                   <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>0.13</c:v>
                 </c:pt>
               </c:numCache>
@@ -3215,7 +2882,7 @@
             <c:strRef>
               <c:f>power!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>3x3</c:v>
                 </c:pt>
@@ -3248,15 +2915,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>18x18</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>20x20</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>22x22</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24x24</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3268,7 +2926,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.42</c:v>
+                  <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.43</c:v>
@@ -3280,34 +2938,25 @@
                   <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.43</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.43</c:v>
+                  <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1.44</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.44</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.44</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.47</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.47</c:v>
+                  <c:v>1.45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5648,21 +5297,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -5674,7 +5323,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -5682,16 +5331,16 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>16.47</v>
+        <v>17.71</v>
       </c>
       <c r="C2">
         <v>5.34</v>
       </c>
       <c r="D2">
-        <v>11.12</v>
+        <v>11.57</v>
       </c>
       <c r="E2">
-        <v>34.29</v>
+        <v>45.71</v>
       </c>
       <c r="F2">
         <v>2.73</v>
@@ -5708,16 +5357,16 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>17.41</v>
+        <v>18.78</v>
       </c>
       <c r="C3">
         <v>5.34</v>
       </c>
       <c r="D3">
-        <v>11.67</v>
+        <v>12.42</v>
       </c>
       <c r="E3">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F3">
         <v>5.45</v>
@@ -5734,16 +5383,16 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>18.100000000000001</v>
+        <v>19.78</v>
       </c>
       <c r="C4">
-        <v>5.43</v>
+        <v>5.53</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>13.02</v>
       </c>
       <c r="E4">
-        <v>46.43</v>
+        <v>57.86</v>
       </c>
       <c r="F4">
         <v>9.09</v>
@@ -5760,16 +5409,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>18.75</v>
+        <v>20.89</v>
       </c>
       <c r="C5">
-        <v>5.53</v>
+        <v>5.71</v>
       </c>
       <c r="D5">
-        <v>12.57</v>
+        <v>13.92</v>
       </c>
       <c r="E5">
-        <v>52.14</v>
+        <v>57.86</v>
       </c>
       <c r="F5">
         <v>13.64</v>
@@ -5786,16 +5435,16 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>19.04</v>
+        <v>22.07</v>
       </c>
       <c r="C6">
-        <v>5.62</v>
+        <v>5.9</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14.73</v>
       </c>
       <c r="E6">
-        <v>52.14</v>
+        <v>57.86</v>
       </c>
       <c r="F6">
         <v>19.09</v>
@@ -5812,13 +5461,13 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>20.010000000000002</v>
+        <v>23.45</v>
       </c>
       <c r="C7">
-        <v>5.71</v>
+        <v>6.08</v>
       </c>
       <c r="D7">
-        <v>13.82</v>
+        <v>15.94</v>
       </c>
       <c r="E7">
         <v>57.86</v>
@@ -5838,13 +5487,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>21.81</v>
+        <v>26.5</v>
       </c>
       <c r="C8">
-        <v>5.9</v>
+        <v>6.45</v>
       </c>
       <c r="D8">
-        <v>15.23</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="E8">
         <v>57.86</v>
@@ -5864,13 +5513,13 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>23.93</v>
+        <v>29.89</v>
       </c>
       <c r="C9">
-        <v>6.08</v>
+        <v>6.82</v>
       </c>
       <c r="D9">
-        <v>16.95</v>
+        <v>21.41</v>
       </c>
       <c r="E9">
         <v>57.86</v>
@@ -5890,13 +5539,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>25.9</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="C10">
-        <v>6.26</v>
+        <v>7.18</v>
       </c>
       <c r="D10">
-        <v>18.899999999999999</v>
+        <v>24.86</v>
       </c>
       <c r="E10">
         <v>57.86</v>
@@ -5916,13 +5565,13 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>31.48</v>
+        <v>45.21</v>
       </c>
       <c r="C11">
-        <v>6.45</v>
+        <v>7.55</v>
       </c>
       <c r="D11">
-        <v>22.09</v>
+        <v>30.44</v>
       </c>
       <c r="E11">
         <v>57.86</v>
@@ -5942,13 +5591,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>43.23</v>
+        <v>76.180000000000007</v>
       </c>
       <c r="C12">
-        <v>6.63</v>
+        <v>7.9</v>
       </c>
       <c r="D12">
-        <v>27.6</v>
+        <v>40.21</v>
       </c>
       <c r="E12">
         <v>57.86</v>
@@ -5960,86 +5609,17 @@
         <v>8</v>
       </c>
       <c r="H12">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>57.08</v>
-      </c>
-      <c r="C13">
-        <v>6.82</v>
-      </c>
-      <c r="D13">
-        <v>33.75</v>
-      </c>
-      <c r="E13">
-        <v>57.86</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <v>3.13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>71.77</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
-      </c>
-      <c r="D14">
-        <v>40.549999999999997</v>
-      </c>
-      <c r="E14">
-        <v>57.86</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
         <v>6.25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="1">
-        <v>89.095863342285156</v>
-      </c>
-      <c r="C15" s="1">
-        <v>7.1839079856872559</v>
-      </c>
-      <c r="D15" s="1">
-        <v>47.988719940185547</v>
-      </c>
-      <c r="E15" s="1">
-        <v>57.857143402099609</v>
-      </c>
-      <c r="F15" s="1">
-        <v>100</v>
-      </c>
-      <c r="G15" s="1">
-        <v>8</v>
-      </c>
-      <c r="H15" s="1">
-        <v>6.25</v>
-      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6049,20 +5629,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C15"/>
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -6070,7 +5650,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>1.29</v>
+        <v>7.95</v>
       </c>
       <c r="C2">
         <v>0.03</v>
@@ -6081,10 +5661,10 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>1.24</v>
+        <v>5.24</v>
       </c>
       <c r="C3">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -6092,7 +5672,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>1.24</v>
+        <v>6.55</v>
       </c>
       <c r="C4">
         <v>0.03</v>
@@ -6103,7 +5683,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>7.98</v>
+        <v>6.32</v>
       </c>
       <c r="C5">
         <v>0.03</v>
@@ -6114,10 +5694,10 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>7.71</v>
+        <v>5.77</v>
       </c>
       <c r="C6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -6125,10 +5705,10 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>5.93</v>
+        <v>5.18</v>
       </c>
       <c r="C7">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -6136,10 +5716,10 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2.58</v>
+        <v>2.8</v>
       </c>
       <c r="C8">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -6147,10 +5727,10 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>2.94</v>
+        <v>1.74</v>
       </c>
       <c r="C9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -6158,10 +5738,10 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2.0099999999999998</v>
+        <v>1.42</v>
       </c>
       <c r="C10">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -6169,10 +5749,10 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>2.2599999999999998</v>
+        <v>0.47</v>
       </c>
       <c r="C11">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -6180,43 +5760,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>1.71</v>
+        <v>0.82</v>
       </c>
       <c r="C12">
         <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>1.18</v>
-      </c>
-      <c r="C15">
-        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -6229,8 +5776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6299,7 +5846,7 @@
         <v>0.13</v>
       </c>
       <c r="K2">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -6439,7 +5986,7 @@
         <v>0.13</v>
       </c>
       <c r="K6">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6509,7 +6056,7 @@
         <v>0.13</v>
       </c>
       <c r="K8">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6517,7 +6064,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="C9">
         <v>0.01</v>
@@ -6579,7 +6126,7 @@
         <v>0.13</v>
       </c>
       <c r="K10">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -6614,7 +6161,7 @@
         <v>0.13</v>
       </c>
       <c r="K11">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -6625,7 +6172,7 @@
         <v>0.03</v>
       </c>
       <c r="C12">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="D12">
         <v>0.01</v>
@@ -6649,112 +6196,7 @@
         <v>0.13</v>
       </c>
       <c r="K12">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13">
-        <v>0.03</v>
-      </c>
-      <c r="C13">
-        <v>0.02</v>
-      </c>
-      <c r="D13">
-        <v>0.01</v>
-      </c>
-      <c r="E13">
-        <v>0.02</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>1.26</v>
-      </c>
-      <c r="J13">
-        <v>0.13</v>
-      </c>
-      <c r="K13">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14">
-        <v>0.03</v>
-      </c>
-      <c r="C14">
-        <v>0.02</v>
-      </c>
-      <c r="D14">
-        <v>0.01</v>
-      </c>
-      <c r="E14">
-        <v>0.02</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>1.26</v>
-      </c>
-      <c r="J14">
-        <v>0.13</v>
-      </c>
-      <c r="K14">
-        <v>1.47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>0.03</v>
-      </c>
-      <c r="C15">
-        <v>0.02</v>
-      </c>
-      <c r="D15">
-        <v>0.01</v>
-      </c>
-      <c r="E15">
-        <v>0.01</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>1.26</v>
-      </c>
-      <c r="J15">
-        <v>0.13</v>
-      </c>
-      <c r="K15">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.3">

--- a/dtpu_configurations/only_integer16/50mhz/graph.xlsx
+++ b/dtpu_configurations/only_integer16/50mhz/graph.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF6D4E9-A39F-4C10-B56C-1BFEBFD1A377}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C16623-38F1-4C18-A112-F8B6D61CF566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="utilizaiton" sheetId="1" r:id="rId1"/>
     <sheet name="timing" sheetId="2" r:id="rId2"/>
     <sheet name="power" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="28">
   <si>
     <t>Clocks</t>
   </si>
@@ -99,11 +109,17 @@
   <si>
     <t>BUFG</t>
   </si>
+  <si>
+    <t>PL dynamic</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -146,12 +162,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="18" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1729,1482 +1752,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Clocks</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$B$2:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.02</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Signals</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$C$2:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.02</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Logic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$D$2:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BRAM</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$E$2:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>DSP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent5"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$F$2:$F$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>I/O</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$G$2:$G$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>XADC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$H$2:$H$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PS7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$I$2:$I$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.26</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>PL Static</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$J$2:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>power!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Power</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>power!$A$2:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>3x3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4x4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5x5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6x6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7x7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8x8</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10x10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>12x12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14x14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16x16</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18x18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>power!$K$2:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.43</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.44</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.45</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-99F5-4827-9632-6E18FEE23E7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="552697656"/>
-        <c:axId val="552698312"/>
-        <c:axId val="359543648"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="552697656"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="552698312"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="552698312"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="552697656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:serAx>
-        <c:axId val="359543648"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="552698312"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3285,46 +1832,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4325,500 +2832,6 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4913,47 +2926,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8493DA22-B9A1-40B1-AEA7-E6329094F234}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>563880</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57079C7B-B8BF-4C99-84DE-3DB346D139C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5297,7 +3269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12:H12"/>
     </sheetView>
   </sheetViews>
@@ -5774,15 +3746,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="11" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -5813,390 +3788,973 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>0.02</v>
-      </c>
-      <c r="C2">
-        <v>0.01</v>
-      </c>
-      <c r="D2">
-        <v>0.01</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>1.26</v>
-      </c>
-      <c r="J2">
-        <v>0.13</v>
-      </c>
-      <c r="K2">
-        <v>1.43</v>
+      <c r="B2" s="4">
+        <v>2.0126409828662872E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>8.3020525053143501E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6.5217469818890095E-3</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.844057209789753E-3</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5.1219753913755994E-6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.0700530838221312E-3</v>
+      </c>
+      <c r="H2" s="4">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.12627831101417542</v>
+      </c>
+      <c r="K2" s="4">
+        <v>1.4259476661682129</v>
+      </c>
+      <c r="L2">
+        <f>K2-J2-I2</f>
+        <v>4.0846079587936401E-2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="5">
+        <f>B2/L2</f>
+        <v>0.49273785958657984</v>
+      </c>
+      <c r="P2" s="5">
+        <f>C2/L2</f>
+        <v>0.20325212576254936</v>
+      </c>
+      <c r="Q2" s="5">
+        <f>D2/L2</f>
+        <v>0.15966641224033556</v>
+      </c>
+      <c r="R2" s="5">
+        <f>E2/L2</f>
+        <v>9.4110799581487076E-2</v>
+      </c>
+      <c r="S2" s="5">
+        <f>F2/L2</f>
+        <v>1.2539698896557843E-4</v>
+      </c>
+      <c r="T2" s="5">
+        <f>G2/L2</f>
+        <v>2.6197204104213802E-2</v>
+      </c>
+      <c r="U2" s="5">
+        <f>H2/L2</f>
+        <v>2.3747690394741738E-2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>10</v>
+      </c>
+      <c r="X2" s="5">
+        <f>I2/K2</f>
+        <v>0.88279766882945554</v>
+      </c>
+      <c r="Y2" s="5">
+        <f>J2/K2</f>
+        <v>8.8557465333569202E-2</v>
+      </c>
+      <c r="Z2" s="5">
+        <f>L2/K2</f>
+        <v>2.8644865836975231E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3">
-        <v>0.02</v>
-      </c>
-      <c r="C3">
-        <v>0.01</v>
-      </c>
-      <c r="D3">
-        <v>0.01</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1.26</v>
-      </c>
-      <c r="J3">
-        <v>0.13</v>
-      </c>
-      <c r="K3">
-        <v>1.43</v>
+      <c r="B3" s="4">
+        <v>2.0655462518334389E-2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>8.2670170813798904E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6.6635902039706707E-3</v>
+      </c>
+      <c r="E3" s="4">
+        <v>4.629326518625021E-3</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.8616670533665456E-5</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1.1022539110854268E-3</v>
+      </c>
+      <c r="H3" s="4">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.12737768888473511</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.4285238981246948</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L12" si="0">K3-J3-I3</f>
+        <v>4.2322933673858643E-2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O8" si="1">B3/L3</f>
+        <v>0.48804420500492213</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" ref="P3:P8" si="2">C3/L3</f>
+        <v>0.19533185353089383</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" ref="Q3:Q8" si="3">D3/L3</f>
+        <v>0.15744632107311907</v>
+      </c>
+      <c r="R3" s="5">
+        <f t="shared" ref="R3:R8" si="4">E3/L3</f>
+        <v>0.10938104041413343</v>
+      </c>
+      <c r="S3" s="5">
+        <f t="shared" ref="S3:S8" si="5">F3/L3</f>
+        <v>6.7615044727726301E-4</v>
+      </c>
+      <c r="T3" s="5">
+        <f t="shared" ref="T3:T8" si="6">G3/L3</f>
+        <v>2.6043891937629304E-2</v>
+      </c>
+      <c r="U3" s="5">
+        <f t="shared" ref="U3:U8" si="7">H3/L3</f>
+        <v>2.2919017366993821E-2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X3" s="5">
+        <f t="shared" ref="X3:X8" si="8">I3/K3</f>
+        <v>0.88120561176374479</v>
+      </c>
+      <c r="Y3" s="5">
+        <f t="shared" ref="Y3:Y8" si="9">J3/K3</f>
+        <v>8.9167348934064805E-2</v>
+      </c>
+      <c r="Z3" s="5">
+        <f t="shared" ref="Z3:Z8" si="10">L3/K3</f>
+        <v>2.9627039302190451E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>0.02</v>
-      </c>
-      <c r="C4">
-        <v>0.01</v>
-      </c>
-      <c r="D4">
-        <v>0.01</v>
-      </c>
-      <c r="E4">
-        <v>0.01</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1.26</v>
-      </c>
-      <c r="J4">
-        <v>0.13</v>
-      </c>
-      <c r="K4">
-        <v>1.43</v>
+      <c r="B4" s="4">
+        <v>2.0971808582544327E-2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>8.9864414185285568E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.9632423110306263E-3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>7.159823551774025E-3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>5.1927378081018105E-5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.7373355804011226E-3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.12741456925868988</v>
+      </c>
+      <c r="K4" s="4">
+        <v>1.4330850839614868</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>4.6847239136695862E-2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="1"/>
+        <v>0.44766370375318276</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" si="2"/>
+        <v>0.19182435473533374</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14863719696933553</v>
+      </c>
+      <c r="R4" s="5">
+        <f t="shared" si="4"/>
+        <v>0.15283341523888588</v>
+      </c>
+      <c r="S4" s="5">
+        <f t="shared" si="5"/>
+        <v>1.1084405193975012E-3</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" si="6"/>
+        <v>3.7085122035297319E-2</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" si="7"/>
+        <v>2.0705596952318245E-2</v>
+      </c>
+      <c r="W4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="5">
+        <f t="shared" si="8"/>
+        <v>0.87840093352051885</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" si="9"/>
+        <v>8.8909284371641722E-2</v>
+      </c>
+      <c r="Z4" s="5">
+        <f t="shared" si="10"/>
+        <v>3.2689782107839488E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
-        <v>0.02</v>
-      </c>
-      <c r="C5">
-        <v>0.01</v>
-      </c>
-      <c r="D5">
-        <v>0.01</v>
-      </c>
-      <c r="E5">
-        <v>0.01</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1.26</v>
-      </c>
-      <c r="J5">
-        <v>0.13</v>
-      </c>
-      <c r="K5">
-        <v>1.43</v>
+      <c r="B5" s="4">
+        <v>2.1285485476255417E-2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8.5616987198591232E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>6.6099846735596657E-3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>6.753530353307724E-3</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.2515904381871223E-4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1.5102749457582831E-3</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.12740620970726013</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1.4320522546768188</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>4.5822769403457642E-2</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="1"/>
+        <v>0.46451765690637808</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="2"/>
+        <v>0.18684376416614148</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14425109524394869</v>
+      </c>
+      <c r="R5" s="5">
+        <f t="shared" si="4"/>
+        <v>0.14738372300994371</v>
+      </c>
+      <c r="S5" s="5">
+        <f t="shared" si="5"/>
+        <v>2.7313723166035469E-3</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="6"/>
+        <v>3.295904995310743E-2</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="7"/>
+        <v>2.1168516537110493E-2</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" si="8"/>
+        <v>0.87903445663733026</v>
+      </c>
+      <c r="Y5" s="5">
+        <f t="shared" si="9"/>
+        <v>8.8967570346106375E-2</v>
+      </c>
+      <c r="Z5" s="5">
+        <f t="shared" si="10"/>
+        <v>3.1997973016563409E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
-        <v>0.02</v>
-      </c>
-      <c r="C6">
-        <v>0.01</v>
-      </c>
-      <c r="D6">
-        <v>0.01</v>
-      </c>
-      <c r="E6">
-        <v>0.01</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1.26</v>
-      </c>
-      <c r="J6">
-        <v>0.13</v>
-      </c>
-      <c r="K6">
-        <v>1.44</v>
+      <c r="B6" s="4">
+        <v>2.1786099299788475E-2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>9.7816484048962593E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.1287169121205807E-3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.7097260616719723E-3</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2.6360771153122187E-4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2.2334761451929808E-3</v>
+      </c>
+      <c r="H6" s="4">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.12743115425109863</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.4351342916488647</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>4.8879861831665039E-2</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="1"/>
+        <v>0.44570705569538138</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="2"/>
+        <v>0.20011612223010775</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="3"/>
+        <v>0.14584159293802465</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="4"/>
+        <v>0.13726974279876791</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="5"/>
+        <v>5.392971699450533E-3</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="6"/>
+        <v>4.5693176320439281E-2</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="7"/>
+        <v>1.9844574340938802E-2</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="8"/>
+        <v>0.87714667741637253</v>
+      </c>
+      <c r="Y6" s="5">
+        <f t="shared" si="9"/>
+        <v>8.8793888483209141E-2</v>
+      </c>
+      <c r="Z6" s="5">
+        <f t="shared" si="10"/>
+        <v>3.4059434100418326E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7">
-        <v>0.02</v>
-      </c>
-      <c r="C7">
-        <v>0.01</v>
-      </c>
-      <c r="D7">
-        <v>0.01</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1.26</v>
-      </c>
-      <c r="J7">
-        <v>0.13</v>
-      </c>
-      <c r="K7">
-        <v>1.43</v>
+      <c r="B7" s="4">
+        <v>2.2731000557541847E-2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>9.3391565605998039E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>7.0915780961513519E-3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4.816882312297821E-3</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4.5508128096116707E-5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1.2338256929069757E-3</v>
+      </c>
+      <c r="H7" s="4">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.12740957736968994</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.4324674606323242</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>4.6234607696533203E-2</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="1"/>
+        <v>0.49164471572333207</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="2"/>
+        <v>0.20199493465800683</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15338246498592217</v>
+      </c>
+      <c r="R7" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10418347969802291</v>
+      </c>
+      <c r="S7" s="5">
+        <f t="shared" si="5"/>
+        <v>9.8428710360894947E-4</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="6"/>
+        <v>2.6686193619406256E-2</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="7"/>
+        <v>2.0979956362126267E-2</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X7" s="5">
+        <f t="shared" si="8"/>
+        <v>0.87877966527101947</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" si="9"/>
+        <v>8.89441337211586E-2</v>
+      </c>
+      <c r="Z7" s="5">
+        <f t="shared" si="10"/>
+        <v>3.227620100782197E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
-        <v>0.02</v>
-      </c>
-      <c r="C8">
-        <v>0.01</v>
-      </c>
-      <c r="D8">
-        <v>0.01</v>
-      </c>
-      <c r="E8">
-        <v>0.01</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.26</v>
-      </c>
-      <c r="J8">
-        <v>0.13</v>
-      </c>
-      <c r="K8">
-        <v>1.44</v>
+      <c r="B8" s="4">
+        <v>2.3758821189403534E-2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.035654079169035E-2</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7.4624642729759216E-3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>5.244450643658638E-3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4.0777038520900533E-5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.3892184942960739E-3</v>
+      </c>
+      <c r="H8" s="4">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.12743400037288666</v>
+      </c>
+      <c r="K8" s="4">
+        <v>1.4354861974716187</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>4.922892153263092E-2</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="1"/>
+        <v>0.48261916876759581</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="2"/>
+        <v>0.21037513049774237</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="3"/>
+        <v>0.15158699481217558</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="4"/>
+        <v>0.10653190198737959</v>
+      </c>
+      <c r="S8" s="5">
+        <f t="shared" si="5"/>
+        <v>8.2831468273932961E-4</v>
+      </c>
+      <c r="T8" s="5">
+        <f t="shared" si="6"/>
+        <v>2.8219559784084317E-2</v>
+      </c>
+      <c r="U8" s="5">
+        <f t="shared" si="7"/>
+        <v>1.9703865567120712E-2</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" s="5">
+        <f t="shared" si="8"/>
+        <v>0.87693164711950466</v>
+      </c>
+      <c r="Y8" s="5">
+        <f t="shared" si="9"/>
+        <v>8.8774103573647345E-2</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="10"/>
+        <v>3.4294249306847997E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9">
-        <v>0.03</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-      <c r="D9">
-        <v>0.01</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1.26</v>
-      </c>
-      <c r="J9">
-        <v>0.13</v>
-      </c>
-      <c r="K9">
-        <v>1.44</v>
+      <c r="B9" s="4">
+        <v>2.6481028646230698E-2</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.1453032493591309E-2</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7.4751302599906921E-3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>9.2509845271706581E-3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.5327485743910074E-4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.5687646809965372E-3</v>
+      </c>
+      <c r="H9" s="4">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.12750037014484406</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1.4436825513839722</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>5.7358905673027039E-2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" ref="O9:O12" si="11">B9/L9</f>
+        <v>0.46167248721907489</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" ref="P9:P12" si="12">C9/L9</f>
+        <v>0.19967313461102318</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" ref="Q9:Q12" si="13">D9/L9</f>
+        <v>0.13032205151546089</v>
+      </c>
+      <c r="R9" s="5">
+        <f t="shared" ref="R9:R12" si="14">E9/L9</f>
+        <v>0.1612824446112284</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" ref="S9:S12" si="15">F9/L9</f>
+        <v>2.67220679405636E-3</v>
+      </c>
+      <c r="T9" s="5">
+        <f t="shared" ref="T9:T12" si="16">G9/L9</f>
+        <v>2.7349975781254261E-2</v>
+      </c>
+      <c r="U9" s="5">
+        <f t="shared" ref="U9:U12" si="17">H9/L9</f>
+        <v>1.6911062728824606E-2</v>
+      </c>
+      <c r="W9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" s="5">
+        <f t="shared" ref="X9:X12" si="18">I9/K9</f>
+        <v>0.87195296109892195</v>
+      </c>
+      <c r="Y9" s="5">
+        <f t="shared" ref="Y9:Y12" si="19">J9/K9</f>
+        <v>8.8316070608886327E-2</v>
+      </c>
+      <c r="Z9" s="5">
+        <f t="shared" ref="Z9:Z12" si="20">L9/K9</f>
+        <v>3.9730968292191721E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
-      <c r="B10">
-        <v>0.03</v>
-      </c>
-      <c r="C10">
-        <v>0.01</v>
-      </c>
-      <c r="D10">
-        <v>0.01</v>
-      </c>
-      <c r="E10">
-        <v>0.01</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>1.26</v>
-      </c>
-      <c r="J10">
-        <v>0.13</v>
-      </c>
-      <c r="K10">
-        <v>1.45</v>
+      <c r="B10" s="4">
+        <v>2.8014397248625755E-2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.3654418289661407E-2</v>
+      </c>
+      <c r="D10" s="4">
+        <v>8.4391450509428978E-3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6.0823909007012844E-3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2.6441604131832719E-4</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1.3854476856067777E-3</v>
+      </c>
+      <c r="H10" s="4">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.12751227617263794</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1.4451524019241333</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>5.8816850185394287E-2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="11"/>
+        <v>0.47629883545825169</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="12"/>
+        <v>0.23215147099210262</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="13"/>
+        <v>0.14348175776741187</v>
+      </c>
+      <c r="R10" s="5">
+        <f t="shared" si="14"/>
+        <v>0.1034123874625931</v>
+      </c>
+      <c r="S10" s="5">
+        <f t="shared" si="15"/>
+        <v>4.4955831617108323E-3</v>
+      </c>
+      <c r="T10" s="5">
+        <f t="shared" si="16"/>
+        <v>2.3555285283719925E-2</v>
+      </c>
+      <c r="U10" s="5">
+        <f t="shared" si="17"/>
+        <v>1.6491873482442441E-2</v>
+      </c>
+      <c r="W10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X10" s="5">
+        <f t="shared" si="18"/>
+        <v>0.8710661061698779</v>
+      </c>
+      <c r="Y10" s="5">
+        <f t="shared" si="19"/>
+        <v>8.8234483783760823E-2</v>
+      </c>
+      <c r="Z10" s="5">
+        <f t="shared" si="20"/>
+        <v>4.0699410046361337E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B11">
-        <v>0.03</v>
-      </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
-      <c r="D11">
-        <v>0.01</v>
-      </c>
-      <c r="E11">
-        <v>0.01</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1.26</v>
-      </c>
-      <c r="J11">
-        <v>0.13</v>
-      </c>
-      <c r="K11">
-        <v>1.45</v>
+      <c r="B11" s="4">
+        <v>2.9865028336644173E-2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.4225698076188564E-2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>8.3759762346744537E-3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>6.4076343551278114E-3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4.2771728476509452E-4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1.126573421061039E-3</v>
+      </c>
+      <c r="H11" s="4">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.1275334358215332</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1.4477618932723999</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>6.1405181884765625E-2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O11" s="5">
+        <f t="shared" si="11"/>
+        <v>0.48636006636523887</v>
+      </c>
+      <c r="P11" s="5">
+        <f t="shared" si="12"/>
+        <v>0.2316693418950348</v>
+      </c>
+      <c r="Q11" s="5">
+        <f t="shared" si="13"/>
+        <v>0.13640503907948687</v>
+      </c>
+      <c r="R11" s="5">
+        <f t="shared" si="14"/>
+        <v>0.10435005904147512</v>
+      </c>
+      <c r="S11" s="5">
+        <f t="shared" si="15"/>
+        <v>6.9654917001590938E-3</v>
+      </c>
+      <c r="T11" s="5">
+        <f t="shared" si="16"/>
+        <v>1.8346552953384172E-2</v>
+      </c>
+      <c r="U11" s="5">
+        <f t="shared" si="17"/>
+        <v>1.5796713275984073E-2</v>
+      </c>
+      <c r="W11" t="s">
+        <v>19</v>
+      </c>
+      <c r="X11" s="5">
+        <f t="shared" si="18"/>
+        <v>0.86949606935762225</v>
+      </c>
+      <c r="Y11" s="5">
+        <f t="shared" si="19"/>
+        <v>8.8090062609167921E-2</v>
+      </c>
+      <c r="Z11" s="5">
+        <f t="shared" si="20"/>
+        <v>4.2413868033209859E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12">
-        <v>0.03</v>
-      </c>
-      <c r="C12">
-        <v>0.02</v>
-      </c>
-      <c r="D12">
-        <v>0.01</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.26</v>
-      </c>
-      <c r="J12">
-        <v>0.13</v>
-      </c>
-      <c r="K12">
-        <v>1.45</v>
+      <c r="B12" s="4">
+        <v>3.1407896429300308E-2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.6744256019592285E-2</v>
+      </c>
+      <c r="D12" s="4">
+        <v>9.6261147409677505E-3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.5232325792312622E-3</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.7704094797372818E-4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>7.7326432801783085E-4</v>
+      </c>
+      <c r="H12" s="4">
+        <v>9.7000005189329386E-4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1.2588232755661011</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.12755978107452393</v>
+      </c>
+      <c r="K12" s="4">
+        <v>1.4510115385055542</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>6.4628481864929199E-2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="11"/>
+        <v>0.48597608241736956</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="12"/>
+        <v>0.25908478021481418</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="13"/>
+        <v>0.14894539471135845</v>
+      </c>
+      <c r="R12" s="5">
+        <f t="shared" si="14"/>
+        <v>6.9988222664499958E-2</v>
+      </c>
+      <c r="S12" s="5">
+        <f t="shared" si="15"/>
+        <v>8.9285858389760633E-3</v>
+      </c>
+      <c r="T12" s="5">
+        <f t="shared" si="16"/>
+        <v>1.1964760825326529E-2</v>
+      </c>
+      <c r="U12" s="5">
+        <f t="shared" si="17"/>
+        <v>1.5008863335526789E-2</v>
+      </c>
+      <c r="W12" t="s">
+        <v>20</v>
+      </c>
+      <c r="X12" s="5">
+        <f t="shared" si="18"/>
+        <v>0.86754877005499609</v>
+      </c>
+      <c r="Y12" s="5">
+        <f t="shared" si="19"/>
+        <v>8.7910935019787681E-2</v>
+      </c>
+      <c r="Z12" s="5">
+        <f t="shared" si="20"/>
+        <v>4.454029492521628E-2</v>
       </c>
     </row>
     <row r="26" spans="7:7" x14ac:dyDescent="0.3">
@@ -6205,6 +4763,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>